--- a/Lab1_D1Report/analysis/draft1.xlsx
+++ b/Lab1_D1Report/analysis/draft1.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\APLabR_TaLEs\Lab1_D1Report\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7306EED-1AA9-42F4-9897-B03A41E63387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686B4DDA-0403-401C-9AEE-694BDF596E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="1.1" sheetId="1" r:id="rId1"/>
+    <sheet name="1.3" sheetId="4" r:id="rId2"/>
+    <sheet name="1.4" sheetId="2" r:id="rId3"/>
+    <sheet name="1.8" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
   <si>
     <t>R</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -250,6 +251,18 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10us</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100us</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -618,6 +631,102 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB14777-31AD-4B10-AFBD-362E8B999D79}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2">
+        <v>1.6919999999999999</v>
+      </c>
+      <c r="D2">
+        <v>50.07</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3">
+        <v>1.6919999999999999</v>
+      </c>
+      <c r="D3">
+        <v>53.59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>1.69</v>
+      </c>
+      <c r="D4">
+        <v>51.13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>1.69</v>
+      </c>
+      <c r="D5">
+        <v>48.65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>1.6919999999999999</v>
+      </c>
+      <c r="D6">
+        <v>49.82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>1.6910000000000001</v>
+      </c>
+      <c r="D7">
+        <v>49.47</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4CFB27D-C31B-4615-B6A3-33894D56891A}">
   <dimension ref="A1:H7"/>
   <sheetViews>
@@ -782,12 +891,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C03620-8578-40A7-8369-48F42B6C8D5E}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>

--- a/Lab1_D1Report/analysis/draft1.xlsx
+++ b/Lab1_D1Report/analysis/draft1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\APLabR_TaLEs\Lab1_D1Report\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686B4DDA-0403-401C-9AEE-694BDF596E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F071308-358C-4E81-BB09-F83A9CBD8D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="59">
   <si>
     <t>R</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -634,7 +634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB14777-31AD-4B10-AFBD-362E8B999D79}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
@@ -728,10 +728,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4CFB27D-C31B-4615-B6A3-33894D56891A}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -882,6 +882,101 @@
         <v>29</v>
       </c>
       <c r="H7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" t="s">
         <v>33</v>
       </c>
     </row>
